--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-11T16:43:35-04:00</t>
+    <t>2023-05-17T15:26:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-17T15:26:12-04:00</t>
+    <t>2023-05-23T11:50:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-23T11:50:31-04:00</t>
+    <t>2023-05-26T16:04:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-26T16:04:32-04:00</t>
+    <t>2023-05-30T15:29:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-30T15:29:53-04:00</t>
+    <t>2023-06-08T09:02:09-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T09:02:09-04:00</t>
+    <t>2023-06-08T10:27:07-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-08T10:27:07-04:00</t>
+    <t>2023-06-09T08:59:53-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-09T08:59:53-04:00</t>
+    <t>2023-06-26T13:45:18-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T13:45:18-04:00</t>
+    <t>2023-06-26T14:02:38-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26T14:02:38-04:00</t>
+    <t>2023-06-27T11:58:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T11:58:55-04:00</t>
+    <t>2023-06-27T12:07:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T12:07:05-04:00</t>
+    <t>2023-06-27T13:18:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T13:18:32-04:00</t>
+    <t>2023-06-27T14:37:57-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:37:57-04:00</t>
+    <t>2023-06-27T14:58:12-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T14:58:12-04:00</t>
+    <t>2023-07-04T05:55:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-04T05:55:31+00:00</t>
+    <t>2023-07-07T14:27:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:27:15+00:00</t>
+    <t>2023-07-07T14:44:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:44:27+00:00</t>
+    <t>2023-07-07T14:51:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-07T14:51:33+00:00</t>
+    <t>2023-07-11T16:10:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T16:10:46-04:00</t>
+    <t>2023-07-25T13:28:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-25T13:28:49-04:00</t>
+    <t>2023-07-28T14:17:54-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-28T14:17:54-04:00</t>
+    <t>2023-08-01T11:06:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-01T11:06:47-04:00</t>
+    <t>2023-08-03T16:45:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-03T16:45:03-04:00</t>
+    <t>2023-08-04T11:46:30-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T11:46:30-04:00</t>
+    <t>2023-08-04T15:04:45-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-04T15:04:45-04:00</t>
+    <t>2023-08-08T14:12:31-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-08T14:12:31-04:00</t>
+    <t>2023-08-10T15:12:17-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-10T15:12:17-04:00</t>
+    <t>2023-08-16T16:37:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T16:37:06+00:00</t>
+    <t>2023-08-16T17:53:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T17:53:24+00:00</t>
+    <t>2023-08-16T18:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T18:12:30+00:00</t>
+    <t>2023-08-16T22:53:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T22:53:49+00:00</t>
+    <t>2023-08-16T23:37:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-16T23:37:19+00:00</t>
+    <t>2023-08-21T16:52:35-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T16:52:35-04:00</t>
+    <t>2023-08-21T17:33:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-21T17:33:05-04:00</t>
+    <t>2023-08-22T05:01:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -270,10 +270,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from Questionnaire Ye" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from Yes_No_Some Resp" r:id="rId4" sheetId="2"/>
     <sheet name="Expansion" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-22T05:01:43+00:00</t>
+    <t>2023-08-29T20:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-29T20:22:11+00:00</t>
+    <t>2023-09-15T16:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-15T16:24:43+00:00</t>
+    <t>2023-10-04T03:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T03:12:19+00:00</t>
+    <t>2023-10-04T15:51:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-04T15:51:42+00:00</t>
+    <t>2024-01-15T14:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/vbai-fhir/ValueSet-yesnosome.xlsx
+++ b/vbai-fhir/ValueSet-yesnosome.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T14:38:18+00:00</t>
+    <t>2024-02-07T17:12:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
